--- a/app/config/tables/m_logs/forms/m_logs/maintenance_logs.xlsx
+++ b/app/config/tables/m_logs/forms/m_logs/maintenance_logs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -47,16 +47,28 @@
     <t xml:space="preserve">begin screen</t>
   </si>
   <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">refrigerator_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the ID of the refrigerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if</t>
+  </si>
+  <si>
     <t xml:space="preserve">select_one_dropdown</t>
   </si>
   <si>
     <t xml:space="preserve">refrigerator_ids</t>
   </si>
   <si>
-    <t xml:space="preserve">refrigerator_row_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the ID of the refrigerator</t>
+    <t xml:space="preserve">refrigerator_row_id_fake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end if</t>
   </si>
   <si>
     <t xml:space="preserve">end screen</t>
@@ -71,9 +83,6 @@
     <t xml:space="preserve">Enter the date of service</t>
   </si>
   <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
     <t xml:space="preserve">notes</t>
   </si>
   <si>
@@ -140,13 +149,16 @@
     <t xml:space="preserve">m_logs</t>
   </si>
   <si>
+    <t xml:space="preserve">table_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">survey</t>
   </si>
   <si>
     <t xml:space="preserve">Maintenance Logs</t>
   </si>
   <si>
-    <t xml:space="preserve">table_id</t>
+    <t xml:space="preserve">form_version</t>
   </si>
   <si>
     <t xml:space="preserve">instance_name</t>
@@ -159,6 +171,30 @@
   </si>
   <si>
     <t xml:space="preserve">key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defaultViewType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detailViewFileName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">config/assets/aa_m_logs_detail.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">listViewFileName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">config/assets/aa_m_logs_list.html</t>
   </si>
 </sst>
 </file>
@@ -169,7 +205,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -199,13 +235,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -230,7 +259,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -254,8 +283,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -280,18 +313,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -361,10 +399,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -411,60 +449,90 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>6</v>
+      <c r="D5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="A6" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
+      <c r="A7" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -472,6 +540,9 @@
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -504,13 +575,13 @@
   <sheetData>
     <row r="2" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -552,54 +623,54 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -621,7 +692,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -634,51 +705,56 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>20170714</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
+      <c r="A6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -695,10 +771,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -708,24 +784,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/app/config/tables/m_logs/forms/m_logs/maintenance_logs.xlsx
+++ b/app/config/tables/m_logs/forms/m_logs/maintenance_logs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -44,6 +44,9 @@
     <t xml:space="preserve">display.prompt.text</t>
   </si>
   <si>
+    <t xml:space="preserve">display.prompt.spanish</t>
+  </si>
+  <si>
     <t xml:space="preserve">begin screen</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
     <t xml:space="preserve">refrigerator_row_id_fake</t>
   </si>
   <si>
+    <t xml:space="preserve">Por favor entre el ID del frigorífico</t>
+  </si>
+  <si>
     <t xml:space="preserve">end if</t>
   </si>
   <si>
@@ -83,12 +89,18 @@
     <t xml:space="preserve">Enter the date of service</t>
   </si>
   <si>
+    <t xml:space="preserve">Fecha de servicio</t>
+  </si>
+  <si>
     <t xml:space="preserve">notes</t>
   </si>
   <si>
     <t xml:space="preserve">Enter any extra notes</t>
   </si>
   <si>
+    <t xml:space="preserve">Notas extras</t>
+  </si>
+  <si>
     <t xml:space="preserve">choice_list_name</t>
   </si>
   <si>
@@ -143,6 +155,15 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">display.title.text.spanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.locale.text.spanish</t>
+  </si>
+  <si>
     <t xml:space="preserve">form_id</t>
   </si>
   <si>
@@ -158,10 +179,31 @@
     <t xml:space="preserve">Maintenance Logs</t>
   </si>
   <si>
+    <t xml:space="preserve">Registro de Servicio</t>
+  </si>
+  <si>
     <t xml:space="preserve">form_version</t>
   </si>
   <si>
     <t xml:space="preserve">instance_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">english</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inglés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spanish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Español</t>
   </si>
   <si>
     <t xml:space="preserve">partition</t>
@@ -401,8 +443,8 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -413,10 +455,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.49"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,11 +478,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -452,20 +497,20 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -478,59 +523,68 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -575,13 +629,13 @@
   <sheetData>
     <row r="2" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -623,54 +677,54 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -689,10 +743,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -700,61 +754,96 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>20170714</v>
+        <v>20170715</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -773,7 +862,7 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -784,70 +873,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/app/config/tables/m_logs/forms/m_logs/maintenance_logs.xlsx
+++ b/app/config/tables/m_logs/forms/m_logs/maintenance_logs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -41,10 +41,16 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">display.title.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">display.title.text.es</t>
+  </si>
+  <si>
     <t xml:space="preserve">display.prompt.text</t>
   </si>
   <si>
-    <t xml:space="preserve">display.prompt.spanish</t>
+    <t xml:space="preserve">display.prompt.es</t>
   </si>
   <si>
     <t xml:space="preserve">begin screen</t>
@@ -56,6 +62,12 @@
     <t xml:space="preserve">refrigerator_id</t>
   </si>
   <si>
+    <t xml:space="preserve">Refrigerator ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID de Frigorífico</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter the ID of the refrigerator</t>
   </si>
   <si>
@@ -86,6 +98,12 @@
     <t xml:space="preserve">date_serviced</t>
   </si>
   <si>
+    <t xml:space="preserve">Date Serviced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de Servicio</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter the date of service</t>
   </si>
   <si>
@@ -95,6 +113,12 @@
     <t xml:space="preserve">notes</t>
   </si>
   <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enter any extra notes</t>
   </si>
   <si>
@@ -107,9 +131,6 @@
     <t xml:space="preserve">data_value</t>
   </si>
   <si>
-    <t xml:space="preserve">display.title.text</t>
-  </si>
-  <si>
     <t xml:space="preserve">query_name</t>
   </si>
   <si>
@@ -155,13 +176,10 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
-    <t xml:space="preserve">display.title.text.spanish</t>
-  </si>
-  <si>
     <t xml:space="preserve">display.locale.text</t>
   </si>
   <si>
-    <t xml:space="preserve">display.locale.text.spanish</t>
+    <t xml:space="preserve">display.locale.text.es</t>
   </si>
   <si>
     <t xml:space="preserve">form_id</t>
@@ -197,7 +215,7 @@
     <t xml:space="preserve">Inglés</t>
   </si>
   <si>
-    <t xml:space="preserve">spanish</t>
+    <t xml:space="preserve">es</t>
   </si>
   <si>
     <t xml:space="preserve">Spanish</t>
@@ -441,22 +459,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="24.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -481,10 +499,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -492,25 +516,33 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -520,83 +552,87 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>15</v>
+      <c r="I5" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -629,13 +665,13 @@
   <sheetData>
     <row r="2" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -677,54 +713,54 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -745,8 +781,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -761,87 +797,87 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>20170715</v>
+        <v>20170717</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -873,70 +909,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/app/config/tables/m_logs/forms/m_logs/maintenance_logs.xlsx
+++ b/app/config/tables/m_logs/forms/m_logs/maintenance_logs.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">display.prompt.text</t>
   </si>
   <si>
-    <t xml:space="preserve">display.prompt.es</t>
+    <t xml:space="preserve">display.prompt.text.es</t>
   </si>
   <si>
     <t xml:space="preserve">begin screen</t>
@@ -462,7 +462,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/app/config/tables/m_logs/forms/m_logs/maintenance_logs.xlsx
+++ b/app/config/tables/m_logs/forms/m_logs/maintenance_logs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -71,6 +71,9 @@
     <t xml:space="preserve">Enter the ID of the refrigerator</t>
   </si>
   <si>
+    <t xml:space="preserve">Por favor entre el ID del frigorífico</t>
+  </si>
+  <si>
     <t xml:space="preserve">if</t>
   </si>
   <si>
@@ -81,9 +84,6 @@
   </si>
   <si>
     <t xml:space="preserve">refrigerator_row_id_fake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Por favor entre el ID del frigorífico</t>
   </si>
   <si>
     <t xml:space="preserve">end if</t>
@@ -462,7 +462,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -538,11 +538,13 @@
       <c r="H3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -557,19 +559,19 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,7 +741,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>43</v>

--- a/app/config/tables/m_logs/forms/m_logs/maintenance_logs.xlsx
+++ b/app/config/tables/m_logs/forms/m_logs/maintenance_logs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -53,9 +53,15 @@
     <t xml:space="preserve">display.prompt.text.es</t>
   </si>
   <si>
+    <t xml:space="preserve">required</t>
+  </si>
+  <si>
     <t xml:space="preserve">begin screen</t>
   </si>
   <si>
+    <t xml:space="preserve">if</t>
+  </si>
+  <si>
     <t xml:space="preserve">string</t>
   </si>
   <si>
@@ -74,85 +80,76 @@
     <t xml:space="preserve">Por favor entre el ID del frigorífico</t>
   </si>
   <si>
-    <t xml:space="preserve">if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one_dropdown</t>
+    <t xml:space="preserve">end if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_serviced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Serviced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de Servicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the date of service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de servicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter any extra notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notas extras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choice_list_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">query_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">query_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linked_form_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linked_table_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selectionArgs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newRowInitialElementKeyToValueMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openRowInitialElementKeyToValueMap</t>
   </si>
   <si>
     <t xml:space="preserve">refrigerator_ids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">refrigerator_row_id_fake</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end if</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_serviced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date Serviced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha de Servicio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the date of service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha de servicio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter any extra notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notas extras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">choice_list_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">query_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">query_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linked_form_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">linked_table_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selectionArgs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">newRowInitialElementKeyToValueMap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">openRowInitialElementKeyToValueMap</t>
   </si>
   <si>
     <t xml:space="preserve">linked_table</t>
@@ -459,10 +456,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -505,10 +502,13 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -520,119 +520,112 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="H4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="A5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>15</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="H10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="I10" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="3" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="F11" s="0" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="I11" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>21</v>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -667,10 +660,10 @@
   <sheetData>
     <row r="2" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -715,54 +708,54 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="H2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -799,10 +792,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>5</v>
@@ -811,42 +804,42 @@
         <v>6</v>
       </c>
       <c r="E1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>20170717</v>
@@ -854,32 +847,32 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>64</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -911,70 +904,70 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>68</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="C3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="C4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/app/config/tables/m_logs/forms/m_logs/maintenance_logs.xlsx
+++ b/app/config/tables/m_logs/forms/m_logs/maintenance_logs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -83,40 +83,40 @@
     <t xml:space="preserve">end if</t>
   </si>
   <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date_serviced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Serviced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de Servicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the date of service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de servicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter any extra notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notas extras</t>
+  </si>
+  <si>
     <t xml:space="preserve">end screen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date_serviced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date Serviced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha de Servicio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter the date of service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha de servicio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter any extra notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notas extras</t>
   </si>
   <si>
     <t xml:space="preserve">choice_list_name</t>
@@ -456,10 +456,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -573,59 +573,49 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="3" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -850,7 +840,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/app/config/tables/m_logs/forms/m_logs/maintenance_logs.xlsx
+++ b/app/config/tables/m_logs/forms/m_logs/maintenance_logs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -458,7 +458,7 @@
   </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -766,8 +766,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -832,7 +832,7 @@
         <v>57</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>20170717</v>
+        <v>20170724</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/app/config/tables/m_logs/forms/m_logs/maintenance_logs.xlsx
+++ b/app/config/tables/m_logs/forms/m_logs/maintenance_logs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
   <si>
     <t xml:space="preserve">clause</t>
   </si>
@@ -252,6 +252,42 @@
   </si>
   <si>
     <t xml:space="preserve">config/assets/aa_m_logs_list.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unverifiedUserCanCreate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defaultAccessOnCreation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDDEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FormType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FormType.formType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SURVEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SurveyUtil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SurveyUtil.formId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrong_form</t>
   </si>
 </sst>
 </file>
@@ -345,7 +381,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -376,6 +412,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -459,7 +499,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="B5 B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -637,7 +677,7 @@
   <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="B5 C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -680,7 +720,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B5 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -764,10 +804,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -832,7 +872,7 @@
         <v>57</v>
       </c>
       <c r="B5" s="6" t="n">
-        <v>20170724</v>
+        <v>20170804</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,6 +905,11 @@
         <v>64</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -881,15 +926,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="B5 A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -960,10 +1007,75 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
